--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ebbca62bf3594a2c/Mission Faang/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinha\Documents\GitHub\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9F3A8A63-5363-4731-BD11-E3C8DC10F463}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D3CEFE-01E1-4CDA-8282-E3B735AD33C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1871,7 +1871,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A460" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B479" sqref="B479"/>
+      <selection activeCell="C478" sqref="C478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6904,8 +6904,8 @@
       <c r="B478" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C478" s="4" t="s">
-        <v>4</v>
+      <c r="C478" s="11" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="479" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinha\Documents\GitHub\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D3CEFE-01E1-4CDA-8282-E3B735AD33C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B77B57-3DB4-4D6A-A848-EE852B5001AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1499,7 +1499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1509,6 +1509,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1526,7 +1532,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1551,6 +1557,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1870,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C478" sqref="C478"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1914,8 +1923,8 @@
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
+      <c r="C6" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="21">
@@ -1925,8 +1934,8 @@
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
+      <c r="C7" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="21">
@@ -1936,8 +1945,8 @@
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1947,8 +1956,8 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>4</v>
+      <c r="C9" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinha\Documents\GitHub\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B77B57-3DB4-4D6A-A848-EE852B5001AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A96F81-E2A7-4FAD-AEE8-A9697ABEED99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1967,8 +1967,8 @@
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
+      <c r="C10" s="12" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">

--- a/FINAL450.xlsx
+++ b/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinha\Documents\GitHub\DSA-450\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A96F81-E2A7-4FAD-AEE8-A9697ABEED99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9243108-02D0-42F4-B71C-912825CC98F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="469">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1423,6 +1423,15 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Check Heap Solution</t>
+  </si>
+  <si>
+    <t>G- need Optimization</t>
   </si>
 </sst>
 </file>
@@ -1877,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1888,19 +1897,21 @@
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25">
+    <row r="1" spans="1:5" ht="26.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="B2" s="10" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="21">
+    <row r="4" spans="1:5" ht="21">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1911,12 +1922,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="5" spans="1:5">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" ht="21">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -1926,8 +1935,11 @@
       <c r="C6" s="12" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
+      <c r="D6" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1937,8 +1949,11 @@
       <c r="C7" s="12" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
+      <c r="D7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -1948,8 +1963,14 @@
       <c r="C8" s="12" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="21">
+      <c r="D8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +1981,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:5" ht="21">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -1970,41 +1991,53 @@
       <c r="C10" s="12" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
+      <c r="D10" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
+      <c r="C11" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D11" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
+      <c r="C12" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21">
       <c r="A13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="21">
+      <c r="C13" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21">
       <c r="A14" s="5" t="s">
         <v>5</v>
       </c>
@@ -2015,7 +2048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:5" ht="21">
       <c r="A15" s="5" t="s">
         <v>5</v>
       </c>
@@ -2026,7 +2059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:5" ht="21">
       <c r="A16" s="5" t="s">
         <v>5</v>
       </c>
